--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/CD/10/seed2/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/CD/10/seed2/result_data_RandomForest.xlsx
@@ -485,7 +485,7 @@
         <v>4.54</v>
       </c>
       <c r="C3" t="n">
-        <v>-11.11539999999999</v>
+        <v>-11.07759999999999</v>
       </c>
       <c r="D3" t="n">
         <v>-6.85</v>
@@ -791,7 +791,7 @@
         <v>7.49</v>
       </c>
       <c r="C21" t="n">
-        <v>-13.10130000000001</v>
+        <v>-13.26190000000001</v>
       </c>
       <c r="D21" t="n">
         <v>-8.890000000000001</v>
@@ -825,7 +825,7 @@
         <v>5.8</v>
       </c>
       <c r="C23" t="n">
-        <v>-11.8135</v>
+        <v>-11.92960000000001</v>
       </c>
       <c r="D23" t="n">
         <v>-8.529999999999999</v>
@@ -859,7 +859,7 @@
         <v>5.09</v>
       </c>
       <c r="C25" t="n">
-        <v>-11.11889999999999</v>
+        <v>-10.99299999999999</v>
       </c>
       <c r="D25" t="n">
         <v>-7.71</v>
